--- a/data/pca/factorExposure/factorExposure_2015-06-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.0194205696711915</v>
+        <v>0.008206757843673123</v>
       </c>
       <c r="C2">
-        <v>0.02124399829182837</v>
+        <v>-0.05000648692056985</v>
       </c>
       <c r="D2">
-        <v>-0.1114024527330902</v>
+        <v>0.1366514216209105</v>
       </c>
       <c r="E2">
-        <v>0.006784369588390758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.008000173407028835</v>
+      </c>
+      <c r="F2">
+        <v>0.0155773770610687</v>
+      </c>
+      <c r="G2">
+        <v>-0.1228759401413403</v>
+      </c>
+      <c r="H2">
+        <v>-0.06926467821034216</v>
+      </c>
+      <c r="I2">
+        <v>0.04018365835258348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.007411137047598089</v>
+        <v>-0.006194095581572944</v>
       </c>
       <c r="C3">
-        <v>0.007492163766378675</v>
+        <v>-0.001040015749393379</v>
       </c>
       <c r="D3">
-        <v>0.006829939794343547</v>
+        <v>0.001634085092350463</v>
       </c>
       <c r="E3">
-        <v>0.00354858303355417</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01334976192246406</v>
+      </c>
+      <c r="F3">
+        <v>-0.004381051288691705</v>
+      </c>
+      <c r="G3">
+        <v>0.001301050602100556</v>
+      </c>
+      <c r="H3">
+        <v>0.01290895449200476</v>
+      </c>
+      <c r="I3">
+        <v>0.005390796137407304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04521748729268408</v>
+        <v>0.01861811875510341</v>
       </c>
       <c r="C4">
-        <v>0.06877543362116259</v>
+        <v>-0.09978566404626273</v>
       </c>
       <c r="D4">
-        <v>-0.1336670178364988</v>
+        <v>0.1385432589936763</v>
       </c>
       <c r="E4">
-        <v>0.07876294648633091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0140289196781586</v>
+      </c>
+      <c r="F4">
+        <v>0.08516356918666715</v>
+      </c>
+      <c r="G4">
+        <v>-0.002645033814026741</v>
+      </c>
+      <c r="H4">
+        <v>-0.05210559775170531</v>
+      </c>
+      <c r="I4">
+        <v>-0.05680238400928792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02425610536394621</v>
+        <v>0.026910876356953</v>
       </c>
       <c r="C6">
-        <v>0.01287003126337303</v>
+        <v>-0.03169980275233912</v>
       </c>
       <c r="D6">
-        <v>-0.1402736609967313</v>
+        <v>0.1281487001809187</v>
       </c>
       <c r="E6">
-        <v>0.03381668483063439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04714537650313166</v>
+      </c>
+      <c r="F6">
+        <v>0.04849755166683432</v>
+      </c>
+      <c r="G6">
+        <v>0.0002858636456670517</v>
+      </c>
+      <c r="H6">
+        <v>-0.06640449012200664</v>
+      </c>
+      <c r="I6">
+        <v>0.0031727819625446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.005977161873446456</v>
+        <v>0.008518058593173151</v>
       </c>
       <c r="C7">
-        <v>0.02217145275216205</v>
+        <v>-0.03229220920841142</v>
       </c>
       <c r="D7">
-        <v>-0.1119943814268823</v>
+        <v>0.100420869599412</v>
       </c>
       <c r="E7">
-        <v>0.001270645593452421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05082466831135988</v>
+      </c>
+      <c r="F7">
+        <v>0.008940229764545893</v>
+      </c>
+      <c r="G7">
+        <v>0.009974359968521796</v>
+      </c>
+      <c r="H7">
+        <v>-0.07952306297726282</v>
+      </c>
+      <c r="I7">
+        <v>0.01527349580747835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002981967488117329</v>
+        <v>-0.01329497560175156</v>
       </c>
       <c r="C8">
-        <v>0.02557920136825516</v>
+        <v>-0.03166845911815672</v>
       </c>
       <c r="D8">
-        <v>-0.0802428455121164</v>
+        <v>0.07759234710410773</v>
       </c>
       <c r="E8">
-        <v>0.02404770179410742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01984977283172124</v>
+      </c>
+      <c r="F8">
+        <v>0.04500793515665917</v>
+      </c>
+      <c r="G8">
+        <v>-0.06284230754147627</v>
+      </c>
+      <c r="H8">
+        <v>-0.01059584926556127</v>
+      </c>
+      <c r="I8">
+        <v>0.02739271426862027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03852539731251476</v>
+        <v>0.01320729556578211</v>
       </c>
       <c r="C9">
-        <v>0.05833109217041452</v>
+        <v>-0.08285191104762372</v>
       </c>
       <c r="D9">
-        <v>-0.1325630217134016</v>
+        <v>0.119584827562002</v>
       </c>
       <c r="E9">
-        <v>0.0638492591669011</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005179429837443282</v>
+      </c>
+      <c r="F9">
+        <v>0.0564977618716026</v>
+      </c>
+      <c r="G9">
+        <v>0.01753471648152205</v>
+      </c>
+      <c r="H9">
+        <v>-0.06396408394285558</v>
+      </c>
+      <c r="I9">
+        <v>-0.02233352659486105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1572292594781364</v>
+        <v>0.2332141628560945</v>
       </c>
       <c r="C10">
-        <v>-0.1780317786190415</v>
+        <v>0.100110846772896</v>
       </c>
       <c r="D10">
-        <v>-0.008404547863294512</v>
+        <v>-0.005053406809919736</v>
       </c>
       <c r="E10">
-        <v>0.0479290053084099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02701158731508784</v>
+      </c>
+      <c r="F10">
+        <v>0.04091333674018038</v>
+      </c>
+      <c r="G10">
+        <v>-0.007842224173508985</v>
+      </c>
+      <c r="H10">
+        <v>0.06646362944289454</v>
+      </c>
+      <c r="I10">
+        <v>0.09230389705403452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02160867308300457</v>
+        <v>0.008964022800258428</v>
       </c>
       <c r="C11">
-        <v>0.0394351386230147</v>
+        <v>-0.05228656050550883</v>
       </c>
       <c r="D11">
-        <v>-0.05016894559663717</v>
+        <v>0.04321189729109336</v>
       </c>
       <c r="E11">
-        <v>-0.01605296596118982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01986846570769626</v>
+      </c>
+      <c r="F11">
+        <v>-0.01207987380145732</v>
+      </c>
+      <c r="G11">
+        <v>0.006759687183767515</v>
+      </c>
+      <c r="H11">
+        <v>-0.04984272385134718</v>
+      </c>
+      <c r="I11">
+        <v>-0.05191388841287011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02264272462968568</v>
+        <v>0.009607182459808745</v>
       </c>
       <c r="C12">
-        <v>0.03973506924499434</v>
+        <v>-0.04864822259466917</v>
       </c>
       <c r="D12">
-        <v>-0.06271268937148766</v>
+        <v>0.04874710907750795</v>
       </c>
       <c r="E12">
-        <v>-0.005795998813502949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01905822959302232</v>
+      </c>
+      <c r="F12">
+        <v>-0.01652855080649528</v>
+      </c>
+      <c r="G12">
+        <v>0.02745416356337825</v>
+      </c>
+      <c r="H12">
+        <v>-0.07226901388869915</v>
+      </c>
+      <c r="I12">
+        <v>-0.02970309855779131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.005784638938939769</v>
+        <v>-0.002191090493869654</v>
       </c>
       <c r="C13">
-        <v>0.02311905488829547</v>
+        <v>-0.04137761367396731</v>
       </c>
       <c r="D13">
-        <v>-0.1485859854547696</v>
+        <v>0.14851860771919</v>
       </c>
       <c r="E13">
-        <v>0.03341193098051996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03760514864034656</v>
+      </c>
+      <c r="F13">
+        <v>0.03730696135378331</v>
+      </c>
+      <c r="G13">
+        <v>-0.03250417481083558</v>
+      </c>
+      <c r="H13">
+        <v>-0.08503082782596652</v>
+      </c>
+      <c r="I13">
+        <v>0.1191550571469588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.003836769960309808</v>
+        <v>-0.001725810531769192</v>
       </c>
       <c r="C14">
-        <v>0.01785136732194795</v>
+        <v>-0.02643872554230545</v>
       </c>
       <c r="D14">
-        <v>-0.09878154509745719</v>
+        <v>0.1033622649990547</v>
       </c>
       <c r="E14">
-        <v>0.008541235074463549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0296546382988874</v>
+      </c>
+      <c r="F14">
+        <v>0.02766080921994131</v>
+      </c>
+      <c r="G14">
+        <v>-0.01446016774931434</v>
+      </c>
+      <c r="H14">
+        <v>-0.1336150908234288</v>
+      </c>
+      <c r="I14">
+        <v>0.01775966385305802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001571370750541138</v>
+        <v>-0.00134627619013266</v>
       </c>
       <c r="C15">
-        <v>0.01023120639453317</v>
+        <v>-0.01980449230089723</v>
       </c>
       <c r="D15">
-        <v>-0.02688518083420475</v>
+        <v>0.05458664144628845</v>
       </c>
       <c r="E15">
-        <v>-0.003333843946621418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.006052261923270679</v>
+      </c>
+      <c r="F15">
+        <v>0.004274702344625631</v>
+      </c>
+      <c r="G15">
+        <v>-0.02220671359574919</v>
+      </c>
+      <c r="H15">
+        <v>-0.02982097190820055</v>
+      </c>
+      <c r="I15">
+        <v>-0.01852823582663612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02201059264693351</v>
+        <v>0.009811127622734917</v>
       </c>
       <c r="C16">
-        <v>0.03762827466491128</v>
+        <v>-0.04814449297064532</v>
       </c>
       <c r="D16">
-        <v>-0.05709496865286397</v>
+        <v>0.04485737310003772</v>
       </c>
       <c r="E16">
-        <v>-0.009653739061694654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02145764960451384</v>
+      </c>
+      <c r="F16">
+        <v>-0.009007188323008756</v>
+      </c>
+      <c r="G16">
+        <v>0.0195585105460338</v>
+      </c>
+      <c r="H16">
+        <v>-0.05354372015976349</v>
+      </c>
+      <c r="I16">
+        <v>-0.04624774364891641</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.006607789771468406</v>
+        <v>0.0006848525170695869</v>
       </c>
       <c r="C19">
-        <v>0.0195870612003907</v>
+        <v>-0.01884943455215746</v>
       </c>
       <c r="D19">
-        <v>-0.1098994106117856</v>
+        <v>0.07012117387943054</v>
       </c>
       <c r="E19">
-        <v>0.04208997072109269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.02015142146911516</v>
+      </c>
+      <c r="F19">
+        <v>0.005543707109523345</v>
+      </c>
+      <c r="G19">
+        <v>-0.006926505899145611</v>
+      </c>
+      <c r="H19">
+        <v>-0.06615618137687676</v>
+      </c>
+      <c r="I19">
+        <v>0.04647550986043247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.004741368905629862</v>
+        <v>0.003524939418313754</v>
       </c>
       <c r="C20">
-        <v>0.02406145820594736</v>
+        <v>-0.03717903148314782</v>
       </c>
       <c r="D20">
-        <v>-0.08940393164540095</v>
+        <v>0.09555729904314893</v>
       </c>
       <c r="E20">
-        <v>0.03362424592362362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.00859581321702921</v>
+      </c>
+      <c r="F20">
+        <v>0.02583191241404355</v>
+      </c>
+      <c r="G20">
+        <v>0.006825646520825178</v>
+      </c>
+      <c r="H20">
+        <v>-0.05986168978518956</v>
+      </c>
+      <c r="I20">
+        <v>-0.02219789688140173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.007939377949813855</v>
+        <v>0.001538209279673141</v>
       </c>
       <c r="C21">
-        <v>0.02889642773200535</v>
+        <v>-0.0385853864254147</v>
       </c>
       <c r="D21">
-        <v>-0.1641135954727424</v>
+        <v>0.1309862059262167</v>
       </c>
       <c r="E21">
-        <v>0.07099871682706332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0003356423349069098</v>
+      </c>
+      <c r="F21">
+        <v>0.07764593585787179</v>
+      </c>
+      <c r="G21">
+        <v>-0.01833756816078275</v>
+      </c>
+      <c r="H21">
+        <v>-0.2007426760457583</v>
+      </c>
+      <c r="I21">
+        <v>0.1642514538497574</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001688687910822383</v>
+        <v>-0.01126990279140161</v>
       </c>
       <c r="C22">
-        <v>0.06067328033715095</v>
+        <v>-0.08232500691165463</v>
       </c>
       <c r="D22">
-        <v>-0.2358186714103708</v>
+        <v>0.2721697718857193</v>
       </c>
       <c r="E22">
-        <v>-0.0238235431062694</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04824319578267186</v>
+      </c>
+      <c r="F22">
+        <v>0.03418040171061197</v>
+      </c>
+      <c r="G22">
+        <v>-0.3659512356328622</v>
+      </c>
+      <c r="H22">
+        <v>0.3705026048708858</v>
+      </c>
+      <c r="I22">
+        <v>-0.1295486679936191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001955285906953052</v>
+        <v>-0.01087795635462128</v>
       </c>
       <c r="C23">
-        <v>0.06115540391274285</v>
+        <v>-0.08334253002545136</v>
       </c>
       <c r="D23">
-        <v>-0.2353813311457555</v>
+        <v>0.2728935602748967</v>
       </c>
       <c r="E23">
-        <v>-0.02366044931483683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04494290474204458</v>
+      </c>
+      <c r="F23">
+        <v>0.03375970791425408</v>
+      </c>
+      <c r="G23">
+        <v>-0.365490062573793</v>
+      </c>
+      <c r="H23">
+        <v>0.3706426007805609</v>
+      </c>
+      <c r="I23">
+        <v>-0.1302932870994646</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0280550668376372</v>
+        <v>0.008923746047868249</v>
       </c>
       <c r="C24">
-        <v>0.05583043219455231</v>
+        <v>-0.06495211900836008</v>
       </c>
       <c r="D24">
-        <v>-0.06925445683804006</v>
+        <v>0.05273578311896588</v>
       </c>
       <c r="E24">
-        <v>-0.0051543406284105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02533927748458703</v>
+      </c>
+      <c r="F24">
+        <v>-0.006484600215988707</v>
+      </c>
+      <c r="G24">
+        <v>0.01101731627781955</v>
+      </c>
+      <c r="H24">
+        <v>-0.07971691721155454</v>
+      </c>
+      <c r="I24">
+        <v>-0.04184964235002835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.02968983904939059</v>
+        <v>0.01270130834988277</v>
       </c>
       <c r="C25">
-        <v>0.04700305680255493</v>
+        <v>-0.06023870938654725</v>
       </c>
       <c r="D25">
-        <v>-0.06210655072905946</v>
+        <v>0.0509013272667659</v>
       </c>
       <c r="E25">
-        <v>-0.001033749426100442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01227021718887199</v>
+      </c>
+      <c r="F25">
+        <v>-0.008257031686675638</v>
+      </c>
+      <c r="G25">
+        <v>0.01633108723089748</v>
+      </c>
+      <c r="H25">
+        <v>-0.0453100101496863</v>
+      </c>
+      <c r="I25">
+        <v>-0.03182505617242587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.009381599843536887</v>
+        <v>0.006737844210900837</v>
       </c>
       <c r="C26">
-        <v>0.01425414886002312</v>
+        <v>-0.02470093883467761</v>
       </c>
       <c r="D26">
-        <v>-0.08220162899753312</v>
+        <v>0.06971719638468156</v>
       </c>
       <c r="E26">
-        <v>0.01844637923461264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02607955518459146</v>
+      </c>
+      <c r="F26">
+        <v>0.02230918911640407</v>
+      </c>
+      <c r="G26">
+        <v>0.01019326298445955</v>
+      </c>
+      <c r="H26">
+        <v>-0.08970335966901104</v>
+      </c>
+      <c r="I26">
+        <v>0.03973898447681392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2417520689925977</v>
+        <v>0.3192411571919701</v>
       </c>
       <c r="C28">
-        <v>-0.2189115151641342</v>
+        <v>0.1001731268615096</v>
       </c>
       <c r="D28">
-        <v>-0.01950330405539382</v>
+        <v>-0.005682922179475376</v>
       </c>
       <c r="E28">
-        <v>0.06791912270001992</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05897911660353605</v>
+      </c>
+      <c r="F28">
+        <v>0.03725429306586516</v>
+      </c>
+      <c r="G28">
+        <v>-0.03242998767627919</v>
+      </c>
+      <c r="H28">
+        <v>0.01266286568451694</v>
+      </c>
+      <c r="I28">
+        <v>0.1294459150846192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.00021152269766492</v>
+        <v>-0.002504550388411615</v>
       </c>
       <c r="C29">
-        <v>0.02132403262083719</v>
+        <v>-0.02956710237372158</v>
       </c>
       <c r="D29">
-        <v>-0.09657810251445345</v>
+        <v>0.09967954863122096</v>
       </c>
       <c r="E29">
-        <v>0.01321069050597102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03928256192210158</v>
+      </c>
+      <c r="F29">
+        <v>0.03475204341272026</v>
+      </c>
+      <c r="G29">
+        <v>-0.003606941789179657</v>
+      </c>
+      <c r="H29">
+        <v>-0.1412666651976534</v>
+      </c>
+      <c r="I29">
+        <v>0.01773676936662098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02549164506355549</v>
+        <v>0.01409848988003915</v>
       </c>
       <c r="C30">
-        <v>0.05732447451449287</v>
+        <v>-0.08288703597724005</v>
       </c>
       <c r="D30">
-        <v>-0.1649360625117739</v>
+        <v>0.1603875622496797</v>
       </c>
       <c r="E30">
-        <v>0.0203621025429536</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03992717620001235</v>
+      </c>
+      <c r="F30">
+        <v>0.03521732012276713</v>
+      </c>
+      <c r="G30">
+        <v>-0.02731292982012523</v>
+      </c>
+      <c r="H30">
+        <v>-0.06311023379937263</v>
+      </c>
+      <c r="I30">
+        <v>-0.07094105353233802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04557897434952015</v>
+        <v>0.009402021592336543</v>
       </c>
       <c r="C31">
-        <v>0.08327963648315766</v>
+        <v>-0.09207272557673141</v>
       </c>
       <c r="D31">
-        <v>-0.06949511559945341</v>
+        <v>0.04099132875284276</v>
       </c>
       <c r="E31">
-        <v>0.01174468391458803</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008867443826018168</v>
+      </c>
+      <c r="F31">
+        <v>0.01097804430097021</v>
+      </c>
+      <c r="G31">
+        <v>-0.003351899017193955</v>
+      </c>
+      <c r="H31">
+        <v>-0.04615818477837172</v>
+      </c>
+      <c r="I31">
+        <v>0.05679879935211578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.02235310473340188</v>
+        <v>0.01152498536270415</v>
       </c>
       <c r="C32">
-        <v>0.03050728694260175</v>
+        <v>-0.04410624138287423</v>
       </c>
       <c r="D32">
-        <v>-0.1068337164533302</v>
+        <v>0.1112417995676074</v>
       </c>
       <c r="E32">
-        <v>0.06703655098305332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.004004409952414262</v>
+      </c>
+      <c r="F32">
+        <v>0.04341931846207559</v>
+      </c>
+      <c r="G32">
+        <v>-0.0188474869266522</v>
+      </c>
+      <c r="H32">
+        <v>-0.04243241026033861</v>
+      </c>
+      <c r="I32">
+        <v>0.07653080415011514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01351029451149135</v>
+        <v>0.005824367043507499</v>
       </c>
       <c r="C33">
-        <v>0.03975153159469685</v>
+        <v>-0.05499471753692999</v>
       </c>
       <c r="D33">
-        <v>-0.1410278681215059</v>
+        <v>0.1243505470595959</v>
       </c>
       <c r="E33">
-        <v>0.0392901319003655</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01629089065532693</v>
+      </c>
+      <c r="F33">
+        <v>0.0251065484917349</v>
+      </c>
+      <c r="G33">
+        <v>-0.0006405746616102784</v>
+      </c>
+      <c r="H33">
+        <v>-0.06884251914417602</v>
+      </c>
+      <c r="I33">
+        <v>0.006518850113625356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02523699618566836</v>
+        <v>0.006271327459398015</v>
       </c>
       <c r="C34">
-        <v>0.05802822872662564</v>
+        <v>-0.06200455096838593</v>
       </c>
       <c r="D34">
-        <v>-0.05101450865899744</v>
+        <v>0.03058641001553471</v>
       </c>
       <c r="E34">
-        <v>-0.04812708572378815</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03031556569101262</v>
+      </c>
+      <c r="F34">
+        <v>-0.0370658242425491</v>
+      </c>
+      <c r="G34">
+        <v>0.01263642039370927</v>
+      </c>
+      <c r="H34">
+        <v>-0.06083086977512431</v>
+      </c>
+      <c r="I34">
+        <v>-0.01931916985511395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001567694897517715</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.006650073773622882</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02839241060601344</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.003899333442968089</v>
+      </c>
+      <c r="F35">
+        <v>0.01040004264566769</v>
+      </c>
+      <c r="G35">
+        <v>-0.004811205637577067</v>
+      </c>
+      <c r="H35">
+        <v>-0.0362987742042314</v>
+      </c>
+      <c r="I35">
+        <v>-0.02164418184413011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.008784086410352002</v>
+        <v>0.005793346380103362</v>
       </c>
       <c r="C36">
-        <v>0.005559804100183502</v>
+        <v>-0.01927214362898926</v>
       </c>
       <c r="D36">
-        <v>-0.08830601828447512</v>
+        <v>0.07527745770592026</v>
       </c>
       <c r="E36">
-        <v>0.04185825898593532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.006299330322816989</v>
+      </c>
+      <c r="F36">
+        <v>0.03559407003520076</v>
+      </c>
+      <c r="G36">
+        <v>0.00110075708328231</v>
+      </c>
+      <c r="H36">
+        <v>-0.06394131513691811</v>
+      </c>
+      <c r="I36">
+        <v>0.02433674656544598</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.006327987496164057</v>
+        <v>0.01206245194067526</v>
       </c>
       <c r="C38">
-        <v>0.005601689828003023</v>
+        <v>-0.0150639997219762</v>
       </c>
       <c r="D38">
-        <v>-0.0844825649339402</v>
+        <v>0.0841328533316336</v>
       </c>
       <c r="E38">
-        <v>0.01119779741833694</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01116679042173482</v>
+      </c>
+      <c r="F38">
+        <v>-0.007757607526085393</v>
+      </c>
+      <c r="G38">
+        <v>-0.01916720520789791</v>
+      </c>
+      <c r="H38">
+        <v>-0.05576186840905657</v>
+      </c>
+      <c r="I38">
+        <v>0.0264394340579709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02081453000773591</v>
+        <v>0.004374266825281562</v>
       </c>
       <c r="C39">
-        <v>0.05589990131072466</v>
+        <v>-0.07445982789296308</v>
       </c>
       <c r="D39">
-        <v>-0.1159831683728743</v>
+        <v>0.1030289892870168</v>
       </c>
       <c r="E39">
-        <v>-0.02006198708325492</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04876064147149334</v>
+      </c>
+      <c r="F39">
+        <v>-0.003085006476582208</v>
+      </c>
+      <c r="G39">
+        <v>0.01311273650371136</v>
+      </c>
+      <c r="H39">
+        <v>-0.110505879246771</v>
+      </c>
+      <c r="I39">
+        <v>-0.07017813800017039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01120839275861262</v>
+        <v>0.0101123332317528</v>
       </c>
       <c r="C40">
-        <v>0.01548636103611669</v>
+        <v>-0.02386665530081161</v>
       </c>
       <c r="D40">
-        <v>-0.1188500651436124</v>
+        <v>0.09646759092530888</v>
       </c>
       <c r="E40">
-        <v>-0.01908238110830588</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.04338334894716177</v>
+      </c>
+      <c r="F40">
+        <v>-0.02205709683674738</v>
+      </c>
+      <c r="G40">
+        <v>-0.06257460703759296</v>
+      </c>
+      <c r="H40">
+        <v>-0.08696390660144969</v>
+      </c>
+      <c r="I40">
+        <v>0.08691712955183563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01156071180314259</v>
+        <v>0.01273196283346363</v>
       </c>
       <c r="C41">
-        <v>0.0055543633589422</v>
+        <v>-0.0150654902732242</v>
       </c>
       <c r="D41">
-        <v>-0.05181747084920587</v>
+        <v>0.04099232534053504</v>
       </c>
       <c r="E41">
-        <v>0.03187833504316</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02025368630548025</v>
+      </c>
+      <c r="F41">
+        <v>0.01491454087754309</v>
+      </c>
+      <c r="G41">
+        <v>-0.01050137934211616</v>
+      </c>
+      <c r="H41">
+        <v>-0.04051583543077223</v>
+      </c>
+      <c r="I41">
+        <v>0.02902933435907198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005760200460312859</v>
+        <v>0.006374843876357645</v>
       </c>
       <c r="C43">
-        <v>0.00624491207573186</v>
+        <v>-0.0138621504684275</v>
       </c>
       <c r="D43">
-        <v>-0.06238005965947214</v>
+        <v>0.04936700912451172</v>
       </c>
       <c r="E43">
-        <v>0.01962145006274876</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.003039473446684382</v>
+      </c>
+      <c r="F43">
+        <v>0.01222277516923855</v>
+      </c>
+      <c r="G43">
+        <v>-0.009482948361676827</v>
+      </c>
+      <c r="H43">
+        <v>-0.05866660205293751</v>
+      </c>
+      <c r="I43">
+        <v>0.01274749180420965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01709481458534132</v>
+        <v>0.008988200651658175</v>
       </c>
       <c r="C44">
-        <v>0.02430371184622563</v>
+        <v>-0.04461843000092303</v>
       </c>
       <c r="D44">
-        <v>-0.1126775241634815</v>
+        <v>0.1170919094197932</v>
       </c>
       <c r="E44">
-        <v>0.04484157280785583</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01983298359453946</v>
+      </c>
+      <c r="F44">
+        <v>0.0291963888393124</v>
+      </c>
+      <c r="G44">
+        <v>-0.02129463180234555</v>
+      </c>
+      <c r="H44">
+        <v>-0.05711754032715689</v>
+      </c>
+      <c r="I44">
+        <v>-0.05933826010347707</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.007955455325250086</v>
+        <v>-0.001146330542846399</v>
       </c>
       <c r="C46">
-        <v>0.02704217050882043</v>
+        <v>-0.03842295465784919</v>
       </c>
       <c r="D46">
-        <v>-0.09093326375076297</v>
+        <v>0.08324099940411139</v>
       </c>
       <c r="E46">
-        <v>0.0199959012338917</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02628484208432477</v>
+      </c>
+      <c r="F46">
+        <v>0.0275429220496492</v>
+      </c>
+      <c r="G46">
+        <v>-0.01016710882237291</v>
+      </c>
+      <c r="H46">
+        <v>-0.1447827807431712</v>
+      </c>
+      <c r="I46">
+        <v>0.003281270814306544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08768126367196048</v>
+        <v>0.03452025624724894</v>
       </c>
       <c r="C47">
-        <v>0.1021107658401887</v>
+        <v>-0.1241375592904537</v>
       </c>
       <c r="D47">
-        <v>-0.0602071766671532</v>
+        <v>0.02465126848317294</v>
       </c>
       <c r="E47">
-        <v>0.02929036334303628</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0210853604994388</v>
+      </c>
+      <c r="F47">
+        <v>-0.01353843022984495</v>
+      </c>
+      <c r="G47">
+        <v>0.04896007109134957</v>
+      </c>
+      <c r="H47">
+        <v>-0.03807741702817569</v>
+      </c>
+      <c r="I47">
+        <v>0.1219634589165704</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007044924425471347</v>
+        <v>0.004536781984489553</v>
       </c>
       <c r="C48">
-        <v>0.01505744638534271</v>
+        <v>-0.02726455874583962</v>
       </c>
       <c r="D48">
-        <v>-0.09241081884361374</v>
+        <v>0.0806367931599089</v>
       </c>
       <c r="E48">
-        <v>0.05662912127579055</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004521842998012835</v>
+      </c>
+      <c r="F48">
+        <v>0.03868715295294779</v>
+      </c>
+      <c r="G48">
+        <v>-0.0005269799626438863</v>
+      </c>
+      <c r="H48">
+        <v>-0.09714064016946537</v>
+      </c>
+      <c r="I48">
+        <v>0.006243656810810319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04208212293840773</v>
+        <v>0.01262054559065618</v>
       </c>
       <c r="C50">
-        <v>0.05977497488107765</v>
+        <v>-0.07375243971656351</v>
       </c>
       <c r="D50">
-        <v>-0.06764137718300629</v>
+        <v>0.04586538727510167</v>
       </c>
       <c r="E50">
-        <v>0.009625213504764243</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.001847747137953788</v>
+      </c>
+      <c r="F50">
+        <v>0.005004748963235013</v>
+      </c>
+      <c r="G50">
+        <v>-0.01935241530061713</v>
+      </c>
+      <c r="H50">
+        <v>-0.03250299472358984</v>
+      </c>
+      <c r="I50">
+        <v>0.09544542084022598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.002812194272590981</v>
+        <v>0.0008662054804495782</v>
       </c>
       <c r="C51">
-        <v>0.003543087865033572</v>
+        <v>-0.01484432616977941</v>
       </c>
       <c r="D51">
-        <v>-0.05723533070991289</v>
+        <v>0.0619513951249231</v>
       </c>
       <c r="E51">
-        <v>-0.0003982115373608504</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03731369192899604</v>
+      </c>
+      <c r="F51">
+        <v>0.03620036596796421</v>
+      </c>
+      <c r="G51">
+        <v>-0.02953672779993606</v>
+      </c>
+      <c r="H51">
+        <v>-0.04734486618894927</v>
+      </c>
+      <c r="I51">
+        <v>0.01842877494004129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1132692857237396</v>
+        <v>0.05839945646953778</v>
       </c>
       <c r="C53">
-        <v>0.117907310870911</v>
+        <v>-0.1567452629671694</v>
       </c>
       <c r="D53">
-        <v>-0.01832456492278653</v>
+        <v>-0.01329394629896977</v>
       </c>
       <c r="E53">
-        <v>0.05731944353579423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03390735912130395</v>
+      </c>
+      <c r="F53">
+        <v>0.04637613230858224</v>
+      </c>
+      <c r="G53">
+        <v>-0.005311835250318671</v>
+      </c>
+      <c r="H53">
+        <v>-0.004847144800411368</v>
+      </c>
+      <c r="I53">
+        <v>0.06105767162589087</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01623555188817081</v>
+        <v>0.0104985386189098</v>
       </c>
       <c r="C54">
-        <v>0.02139229449768126</v>
+        <v>-0.03870160656472474</v>
       </c>
       <c r="D54">
-        <v>-0.09967330877766443</v>
+        <v>0.08327185146734425</v>
       </c>
       <c r="E54">
-        <v>0.001391397877746259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01297043217195304</v>
+      </c>
+      <c r="F54">
+        <v>-0.002540849625719543</v>
+      </c>
+      <c r="G54">
+        <v>-0.02269790958815401</v>
+      </c>
+      <c r="H54">
+        <v>-0.0988497696694934</v>
+      </c>
+      <c r="I54">
+        <v>0.0257406011194842</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1007708442030124</v>
+        <v>0.04463170444735299</v>
       </c>
       <c r="C55">
-        <v>0.0999020374280379</v>
+        <v>-0.1292747300583857</v>
       </c>
       <c r="D55">
-        <v>-0.008542876717548465</v>
+        <v>-0.0265890119777098</v>
       </c>
       <c r="E55">
-        <v>0.01267319330953582</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0009396641215963745</v>
+      </c>
+      <c r="F55">
+        <v>0.0128278644645681</v>
+      </c>
+      <c r="G55">
+        <v>-0.01351300298828451</v>
+      </c>
+      <c r="H55">
+        <v>-0.008617517169268828</v>
+      </c>
+      <c r="I55">
+        <v>0.07418112755614654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1410334468612373</v>
+        <v>0.0631821850424924</v>
       </c>
       <c r="C56">
-        <v>0.1335684555441645</v>
+        <v>-0.1882841943492583</v>
       </c>
       <c r="D56">
-        <v>-0.00552188740409213</v>
+        <v>-0.02334075689011804</v>
       </c>
       <c r="E56">
-        <v>0.01309055338730909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03203021338891777</v>
+      </c>
+      <c r="F56">
+        <v>0.01130601171846974</v>
+      </c>
+      <c r="G56">
+        <v>-0.06031425756574658</v>
+      </c>
+      <c r="H56">
+        <v>-0.003020978009819938</v>
+      </c>
+      <c r="I56">
+        <v>0.08943206598572188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.004184711419416362</v>
+        <v>0.004228737759726642</v>
       </c>
       <c r="C58">
-        <v>0.01066541519000854</v>
+        <v>-0.04657171626091865</v>
       </c>
       <c r="D58">
-        <v>-0.2184716314509328</v>
+        <v>0.2857171649214074</v>
       </c>
       <c r="E58">
-        <v>0.07869375195627806</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02207499065143411</v>
+      </c>
+      <c r="F58">
+        <v>0.09176028498701223</v>
+      </c>
+      <c r="G58">
+        <v>-0.1235190448977908</v>
+      </c>
+      <c r="H58">
+        <v>0.09754238053655767</v>
+      </c>
+      <c r="I58">
+        <v>-0.07392518839884485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1682690097526193</v>
+        <v>0.2467491992558503</v>
       </c>
       <c r="C59">
-        <v>-0.157449143039002</v>
+        <v>0.06875318360646335</v>
       </c>
       <c r="D59">
-        <v>-0.04799769915527603</v>
+        <v>0.06024102523420277</v>
       </c>
       <c r="E59">
-        <v>0.03859013709705852</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.03501093913408258</v>
+      </c>
+      <c r="F59">
+        <v>0.01350936923172296</v>
+      </c>
+      <c r="G59">
+        <v>-0.002408160195986896</v>
+      </c>
+      <c r="H59">
+        <v>0.009374328036645233</v>
+      </c>
+      <c r="I59">
+        <v>0.05613434832019357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1966310134001773</v>
+        <v>0.1535043416923694</v>
       </c>
       <c r="C60">
-        <v>0.08980676172408616</v>
+        <v>-0.1699665949635113</v>
       </c>
       <c r="D60">
-        <v>-0.1859580097091383</v>
+        <v>0.09147213581289283</v>
       </c>
       <c r="E60">
-        <v>-0.1767644087096286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2296782624721281</v>
+      </c>
+      <c r="F60">
+        <v>-0.1565327839800219</v>
+      </c>
+      <c r="G60">
+        <v>0.2235842342726395</v>
+      </c>
+      <c r="H60">
+        <v>0.2189481722534453</v>
+      </c>
+      <c r="I60">
+        <v>0.006434421193154198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03105670043689355</v>
+        <v>0.01224403582012108</v>
       </c>
       <c r="C61">
-        <v>0.05207374751676701</v>
+        <v>-0.07082254564752642</v>
       </c>
       <c r="D61">
-        <v>-0.1030764846046835</v>
+        <v>0.08121081170434206</v>
       </c>
       <c r="E61">
-        <v>-0.008388531665364424</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03633643881978944</v>
+      </c>
+      <c r="F61">
+        <v>-0.01316774334572989</v>
+      </c>
+      <c r="G61">
+        <v>0.02689922450519034</v>
+      </c>
+      <c r="H61">
+        <v>-0.096390022921106</v>
+      </c>
+      <c r="I61">
+        <v>-0.02343396620601097</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.009393301701449312</v>
+        <v>0.002096765990801719</v>
       </c>
       <c r="C63">
-        <v>0.02546169716686106</v>
+        <v>-0.03562372596496253</v>
       </c>
       <c r="D63">
-        <v>-0.09149406081200159</v>
+        <v>0.06984702304413305</v>
       </c>
       <c r="E63">
-        <v>0.01273994524368073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02938038902724554</v>
+      </c>
+      <c r="F63">
+        <v>0.02066216212276175</v>
+      </c>
+      <c r="G63">
+        <v>-0.004913896207206862</v>
+      </c>
+      <c r="H63">
+        <v>-0.06502628114800973</v>
+      </c>
+      <c r="I63">
+        <v>-0.009946380799573083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06487186040186574</v>
+        <v>0.02193852835764652</v>
       </c>
       <c r="C64">
-        <v>0.07876108800823108</v>
+        <v>-0.1037611191561225</v>
       </c>
       <c r="D64">
-        <v>-0.03966872783469428</v>
+        <v>0.0263290472505941</v>
       </c>
       <c r="E64">
-        <v>0.02184748075745751</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02645133476092904</v>
+      </c>
+      <c r="F64">
+        <v>0.02329039601164742</v>
+      </c>
+      <c r="G64">
+        <v>0.0517437251080337</v>
+      </c>
+      <c r="H64">
+        <v>-0.1126591258205096</v>
+      </c>
+      <c r="I64">
+        <v>-0.06411914911439656</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02782934088858637</v>
+        <v>0.02210846874510183</v>
       </c>
       <c r="C65">
-        <v>0.01627907669460862</v>
+        <v>-0.0411819794167442</v>
       </c>
       <c r="D65">
-        <v>-0.120210556530827</v>
+        <v>0.1200761808166886</v>
       </c>
       <c r="E65">
-        <v>0.002529420683288366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04663818933382448</v>
+      </c>
+      <c r="F65">
+        <v>0.002491666561644056</v>
+      </c>
+      <c r="G65">
+        <v>0.02605211419534983</v>
+      </c>
+      <c r="H65">
+        <v>-0.04659233074183938</v>
+      </c>
+      <c r="I65">
+        <v>-0.02098582081804295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02359356972855197</v>
+        <v>0.00210458780235811</v>
       </c>
       <c r="C66">
-        <v>0.06310383527779975</v>
+        <v>-0.08952963083951947</v>
       </c>
       <c r="D66">
-        <v>-0.1209732224627032</v>
+        <v>0.1281788099575601</v>
       </c>
       <c r="E66">
-        <v>-0.02202479011794581</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03411532118309062</v>
+      </c>
+      <c r="F66">
+        <v>-0.01050190042789277</v>
+      </c>
+      <c r="G66">
+        <v>-0.005922737969433133</v>
+      </c>
+      <c r="H66">
+        <v>-0.06640324953515869</v>
+      </c>
+      <c r="I66">
+        <v>-0.07070384433842879</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02679383804394992</v>
+        <v>0.02327563307994958</v>
       </c>
       <c r="C67">
-        <v>0.01705303283932406</v>
+        <v>-0.02759795588746785</v>
       </c>
       <c r="D67">
-        <v>-0.03958712858297615</v>
+        <v>0.03373712135257966</v>
       </c>
       <c r="E67">
-        <v>-0.01506291120090626</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004485058933216144</v>
+      </c>
+      <c r="F67">
+        <v>-0.03005444660980324</v>
+      </c>
+      <c r="G67">
+        <v>-0.006657021941606303</v>
+      </c>
+      <c r="H67">
+        <v>-0.0609398348363865</v>
+      </c>
+      <c r="I67">
+        <v>0.01856992558026885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.194376353261231</v>
+        <v>0.2703210049479427</v>
       </c>
       <c r="C68">
-        <v>-0.1716660280578446</v>
+        <v>0.06967724946897538</v>
       </c>
       <c r="D68">
-        <v>-0.0318946366559022</v>
+        <v>0.0355857196058731</v>
       </c>
       <c r="E68">
-        <v>0.01104650242825257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005109049061241686</v>
+      </c>
+      <c r="F68">
+        <v>0.02754285416328231</v>
+      </c>
+      <c r="G68">
+        <v>-0.06813354945561649</v>
+      </c>
+      <c r="H68">
+        <v>0.0379151380096875</v>
+      </c>
+      <c r="I68">
+        <v>0.08865125719321582</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.0655308223606834</v>
+        <v>0.02013633939485366</v>
       </c>
       <c r="C69">
-        <v>0.1136894731370797</v>
+        <v>-0.1189394446290759</v>
       </c>
       <c r="D69">
-        <v>-0.08326313711952378</v>
+        <v>0.03663978325045608</v>
       </c>
       <c r="E69">
-        <v>0.01505182709371918</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.002371094840839264</v>
+      </c>
+      <c r="F69">
+        <v>-0.01385113699827657</v>
+      </c>
+      <c r="G69">
+        <v>0.03358985676681778</v>
+      </c>
+      <c r="H69">
+        <v>-0.03840717170156807</v>
+      </c>
+      <c r="I69">
+        <v>0.08161844278439367</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.200437740138988</v>
+        <v>0.2708062711934696</v>
       </c>
       <c r="C71">
-        <v>-0.191338900753188</v>
+        <v>0.08568181316615862</v>
       </c>
       <c r="D71">
-        <v>-0.02551842359389202</v>
+        <v>0.02185276720261383</v>
       </c>
       <c r="E71">
-        <v>0.01502102664551615</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008291912902840478</v>
+      </c>
+      <c r="F71">
+        <v>0.01277446832181112</v>
+      </c>
+      <c r="G71">
+        <v>-0.03118081832160953</v>
+      </c>
+      <c r="H71">
+        <v>-0.0181290008754975</v>
+      </c>
+      <c r="I71">
+        <v>0.1408113634489711</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1109810175304486</v>
+        <v>0.0584871359961171</v>
       </c>
       <c r="C72">
-        <v>0.06651283854321223</v>
+        <v>-0.1222419665303671</v>
       </c>
       <c r="D72">
-        <v>-0.1009878320902168</v>
+        <v>0.06245976846651312</v>
       </c>
       <c r="E72">
-        <v>-0.05150731047599758</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08616979008638231</v>
+      </c>
+      <c r="F72">
+        <v>-0.0155066330947081</v>
+      </c>
+      <c r="G72">
+        <v>0.02666484653870402</v>
+      </c>
+      <c r="H72">
+        <v>-0.05654773823469049</v>
+      </c>
+      <c r="I72">
+        <v>-0.06654559880057186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1813367195984726</v>
+        <v>0.137682844917373</v>
       </c>
       <c r="C73">
-        <v>0.05556216074969013</v>
+        <v>-0.1421879033036504</v>
       </c>
       <c r="D73">
-        <v>-0.2602156131865095</v>
+        <v>0.1019832469617585</v>
       </c>
       <c r="E73">
-        <v>-0.2718141941276594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3758116798619852</v>
+      </c>
+      <c r="F73">
+        <v>-0.2351193415014305</v>
+      </c>
+      <c r="G73">
+        <v>0.417926485581896</v>
+      </c>
+      <c r="H73">
+        <v>0.1669975771255272</v>
+      </c>
+      <c r="I73">
+        <v>-0.03985466590916979</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1144645824477397</v>
+        <v>0.05328668437800637</v>
       </c>
       <c r="C74">
-        <v>0.1099286163032138</v>
+        <v>-0.1486546087984136</v>
       </c>
       <c r="D74">
-        <v>0.01968622201177899</v>
+        <v>-0.03866112493567819</v>
       </c>
       <c r="E74">
-        <v>0.04039623889145776</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0104917440343779</v>
+      </c>
+      <c r="F74">
+        <v>0.03865880147497058</v>
+      </c>
+      <c r="G74">
+        <v>-0.004948389271721317</v>
+      </c>
+      <c r="H74">
+        <v>0.01154251399192093</v>
+      </c>
+      <c r="I74">
+        <v>0.0962610513041542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2458417706388541</v>
+        <v>0.1173709664887642</v>
       </c>
       <c r="C75">
-        <v>0.1849618549496541</v>
+        <v>-0.2695758984264665</v>
       </c>
       <c r="D75">
-        <v>0.1091189783574924</v>
+        <v>-0.1319394944274137</v>
       </c>
       <c r="E75">
-        <v>-0.0142467350119478</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08980940396970871</v>
+      </c>
+      <c r="F75">
+        <v>-0.0416362225460699</v>
+      </c>
+      <c r="G75">
+        <v>-0.09903159050508145</v>
+      </c>
+      <c r="H75">
+        <v>-0.0005198869685549239</v>
+      </c>
+      <c r="I75">
+        <v>0.0684468339361316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1481334512347875</v>
+        <v>0.06793573650130562</v>
       </c>
       <c r="C76">
-        <v>0.1293347980038868</v>
+        <v>-0.1823948740331733</v>
       </c>
       <c r="D76">
-        <v>-0.01930317659527961</v>
+        <v>-0.0302721716101181</v>
       </c>
       <c r="E76">
-        <v>0.01370769641287021</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02523629502818664</v>
+      </c>
+      <c r="F76">
+        <v>0.000429518433131096</v>
+      </c>
+      <c r="G76">
+        <v>-0.04021685256728461</v>
+      </c>
+      <c r="H76">
+        <v>-0.02974236942689391</v>
+      </c>
+      <c r="I76">
+        <v>0.08224875971722112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01467756622389839</v>
+        <v>0.02266129578929637</v>
       </c>
       <c r="C77">
-        <v>0.07398293219724532</v>
+        <v>-0.09176147005479997</v>
       </c>
       <c r="D77">
-        <v>-0.05415728293839621</v>
+        <v>0.2796850424613257</v>
       </c>
       <c r="E77">
-        <v>0.2249676713763442</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7669360107894208</v>
+      </c>
+      <c r="F77">
+        <v>-0.3170665954866187</v>
+      </c>
+      <c r="G77">
+        <v>0.2858416549734699</v>
+      </c>
+      <c r="H77">
+        <v>0.236774929035337</v>
+      </c>
+      <c r="I77">
+        <v>0.02563680181084657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.02777980528794068</v>
+        <v>0.01355547397277281</v>
       </c>
       <c r="C78">
-        <v>0.06352905740212791</v>
+        <v>-0.08316070495976512</v>
       </c>
       <c r="D78">
-        <v>-0.1479073390224845</v>
+        <v>0.1326312716590284</v>
       </c>
       <c r="E78">
-        <v>0.0441405721546229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04770895451104636</v>
+      </c>
+      <c r="F78">
+        <v>0.048552328393934</v>
+      </c>
+      <c r="G78">
+        <v>-0.02952115356919162</v>
+      </c>
+      <c r="H78">
+        <v>-0.01309755928220375</v>
+      </c>
+      <c r="I78">
+        <v>0.1066096498577366</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.09957526346599671</v>
+        <v>0.03595518597406801</v>
       </c>
       <c r="C79">
-        <v>0.1630857173483728</v>
+        <v>-0.1857933611571077</v>
       </c>
       <c r="D79">
-        <v>0.09773142377119946</v>
+        <v>-0.06852216336727737</v>
       </c>
       <c r="E79">
-        <v>0.7946825274310452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1224085633915382</v>
+      </c>
+      <c r="F79">
+        <v>0.8138462518390095</v>
+      </c>
+      <c r="G79">
+        <v>0.3677683903360949</v>
+      </c>
+      <c r="H79">
+        <v>0.2240177446781251</v>
+      </c>
+      <c r="I79">
+        <v>-0.1302532465011552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.007236775359183613</v>
+        <v>0.0001616441773382054</v>
       </c>
       <c r="C80">
-        <v>0.04570816838393327</v>
+        <v>-0.04612026209792779</v>
       </c>
       <c r="D80">
-        <v>-0.04772236640366681</v>
+        <v>0.04279122503653326</v>
       </c>
       <c r="E80">
-        <v>-0.0059137716941407</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0256754270697395</v>
+      </c>
+      <c r="F80">
+        <v>0.007011115399457918</v>
+      </c>
+      <c r="G80">
+        <v>-0.02460273691505429</v>
+      </c>
+      <c r="H80">
+        <v>-0.01956926176197083</v>
+      </c>
+      <c r="I80">
+        <v>0.06439319187262789</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1255355574549746</v>
+        <v>0.04724667798826505</v>
       </c>
       <c r="C81">
-        <v>0.1264191131961026</v>
+        <v>-0.1659130423859848</v>
       </c>
       <c r="D81">
-        <v>0.07212316862096285</v>
+        <v>-0.0781476344484153</v>
       </c>
       <c r="E81">
-        <v>0.06782875834230716</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07189535664235784</v>
+      </c>
+      <c r="F81">
+        <v>0.04347523084755862</v>
+      </c>
+      <c r="G81">
+        <v>-0.04788912471381407</v>
+      </c>
+      <c r="H81">
+        <v>-0.06517044009676004</v>
+      </c>
+      <c r="I81">
+        <v>0.1164419932896205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2689547621235201</v>
+        <v>0.1022874080559881</v>
       </c>
       <c r="C82">
-        <v>0.2817691177375307</v>
+        <v>-0.3300264233608712</v>
       </c>
       <c r="D82">
-        <v>0.2007610592171109</v>
+        <v>-0.2217709611017058</v>
       </c>
       <c r="E82">
-        <v>-0.1236958497094226</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05122880945611515</v>
+      </c>
+      <c r="F82">
+        <v>-0.1264407112969385</v>
+      </c>
+      <c r="G82">
+        <v>-0.07968999457876656</v>
+      </c>
+      <c r="H82">
+        <v>-0.101453215912592</v>
+      </c>
+      <c r="I82">
+        <v>0.05382615479343589</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.003177748117189867</v>
+        <v>-0.01361072911948978</v>
       </c>
       <c r="C83">
-        <v>0.05295761941605487</v>
+        <v>-0.03341420583278608</v>
       </c>
       <c r="D83">
-        <v>-0.01337660308259293</v>
+        <v>0.03598769034301708</v>
       </c>
       <c r="E83">
-        <v>0.0575493676543844</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.0926235890625004</v>
+      </c>
+      <c r="F83">
+        <v>0.03454006650179398</v>
+      </c>
+      <c r="G83">
+        <v>-0.06816493552741305</v>
+      </c>
+      <c r="H83">
+        <v>-0.03166959444757225</v>
+      </c>
+      <c r="I83">
+        <v>0.4380512913902322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0008240979553442633</v>
+        <v>-0.003109176843501527</v>
       </c>
       <c r="C84">
-        <v>-0.001761236907366521</v>
+        <v>-0.01619588724531913</v>
       </c>
       <c r="D84">
-        <v>-0.004476119435603548</v>
+        <v>0.04365206082069287</v>
       </c>
       <c r="E84">
-        <v>0.0003076270020442446</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.01162868308500585</v>
+      </c>
+      <c r="F84">
+        <v>0.01877064052570428</v>
+      </c>
+      <c r="G84">
+        <v>-0.05017422842349591</v>
+      </c>
+      <c r="H84">
+        <v>-0.006449550298122765</v>
+      </c>
+      <c r="I84">
+        <v>-0.05315275594942476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1486748468577918</v>
+        <v>0.06223508943779328</v>
       </c>
       <c r="C85">
-        <v>0.1323207476679689</v>
+        <v>-0.1845235274872583</v>
       </c>
       <c r="D85">
-        <v>0.04173672992304397</v>
+        <v>-0.08758701364182224</v>
       </c>
       <c r="E85">
-        <v>0.02885147395568706</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002017250893482237</v>
+      </c>
+      <c r="F85">
+        <v>0.07786906929349714</v>
+      </c>
+      <c r="G85">
+        <v>-0.03548266676509699</v>
+      </c>
+      <c r="H85">
+        <v>-0.008290023149536906</v>
+      </c>
+      <c r="I85">
+        <v>0.07616123827537835</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01350265947036266</v>
+        <v>0.01036272353788366</v>
       </c>
       <c r="C86">
-        <v>0.01090907389426606</v>
+        <v>-0.02886303418512895</v>
       </c>
       <c r="D86">
-        <v>-0.07795753884184883</v>
+        <v>0.1053914934936791</v>
       </c>
       <c r="E86">
-        <v>0.0509753709037923</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04031876390583587</v>
+      </c>
+      <c r="F86">
+        <v>-0.01461807327731795</v>
+      </c>
+      <c r="G86">
+        <v>0.0299267457785907</v>
+      </c>
+      <c r="H86">
+        <v>-0.000285455356816047</v>
+      </c>
+      <c r="I86">
+        <v>0.0862713269796684</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01514088722793097</v>
+        <v>0.008582872014849559</v>
       </c>
       <c r="C87">
-        <v>0.02631251220034699</v>
+        <v>-0.05300973599191763</v>
       </c>
       <c r="D87">
-        <v>-0.1294650759657607</v>
+        <v>0.1441054584730389</v>
       </c>
       <c r="E87">
-        <v>0.04844244732600021</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.003535542787711614</v>
+      </c>
+      <c r="F87">
+        <v>0.04019273773831383</v>
+      </c>
+      <c r="G87">
+        <v>-0.06167669007079583</v>
+      </c>
+      <c r="H87">
+        <v>-0.02963649319406409</v>
+      </c>
+      <c r="I87">
+        <v>-0.0120048158684205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.05879054336626753</v>
+        <v>0.03054434648262701</v>
       </c>
       <c r="C88">
-        <v>0.04496217404338445</v>
+        <v>-0.06821631423262974</v>
       </c>
       <c r="D88">
-        <v>-0.02756165507678249</v>
+        <v>0.005521436423700037</v>
       </c>
       <c r="E88">
-        <v>0.03009468835455589</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.0136928959320829</v>
+      </c>
+      <c r="F88">
+        <v>0.02095792947408418</v>
+      </c>
+      <c r="G88">
+        <v>-0.002519371707909665</v>
+      </c>
+      <c r="H88">
+        <v>-0.02585970872906895</v>
+      </c>
+      <c r="I88">
+        <v>0.01980278675941666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.3002261779905315</v>
+        <v>0.4104553654985885</v>
       </c>
       <c r="C89">
-        <v>-0.350458496004381</v>
+        <v>0.1705409585524321</v>
       </c>
       <c r="D89">
-        <v>-0.01088742759392828</v>
+        <v>0.01992550414817549</v>
       </c>
       <c r="E89">
-        <v>0.09826926530415829</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02589894105175028</v>
+      </c>
+      <c r="F89">
+        <v>0.07963991053881575</v>
+      </c>
+      <c r="G89">
+        <v>-0.05849892182690201</v>
+      </c>
+      <c r="H89">
+        <v>-0.1461583756738634</v>
+      </c>
+      <c r="I89">
+        <v>-0.2259670477119283</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2411350681467941</v>
+        <v>0.3152698051756347</v>
       </c>
       <c r="C90">
-        <v>-0.2560636649278484</v>
+        <v>0.1124539633478007</v>
       </c>
       <c r="D90">
-        <v>-0.03865357286026341</v>
+        <v>0.03445487568321765</v>
       </c>
       <c r="E90">
-        <v>-0.007788170536824204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01569429744139043</v>
+      </c>
+      <c r="F90">
+        <v>-0.01972040350905082</v>
+      </c>
+      <c r="G90">
+        <v>-0.05993782798626167</v>
+      </c>
+      <c r="H90">
+        <v>0.02340360355492163</v>
+      </c>
+      <c r="I90">
+        <v>0.07962710277968989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1650989062212248</v>
+        <v>0.07258184096857326</v>
       </c>
       <c r="C91">
-        <v>0.1779308230567053</v>
+        <v>-0.2124419447271076</v>
       </c>
       <c r="D91">
-        <v>0.09467030266877224</v>
+        <v>-0.1055367744531831</v>
       </c>
       <c r="E91">
-        <v>0.09672013850211136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06552678001708075</v>
+      </c>
+      <c r="F91">
+        <v>0.06604539074494457</v>
+      </c>
+      <c r="G91">
+        <v>-0.01076200736580482</v>
+      </c>
+      <c r="H91">
+        <v>-0.005773644439227345</v>
+      </c>
+      <c r="I91">
+        <v>0.1034206026300525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2226026620977023</v>
+        <v>0.3369397472992741</v>
       </c>
       <c r="C92">
-        <v>-0.2717890381677043</v>
+        <v>0.1469612726455386</v>
       </c>
       <c r="D92">
-        <v>0.05271291227678226</v>
+        <v>-0.001531192086792511</v>
       </c>
       <c r="E92">
-        <v>0.05598152385072051</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0729557772194411</v>
+      </c>
+      <c r="F92">
+        <v>0.01570935292073804</v>
+      </c>
+      <c r="G92">
+        <v>-0.01869962184422092</v>
+      </c>
+      <c r="H92">
+        <v>-0.03486056778393466</v>
+      </c>
+      <c r="I92">
+        <v>-0.2349640969240855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2632018555157071</v>
+        <v>0.333281294025139</v>
       </c>
       <c r="C93">
-        <v>-0.2676797590876931</v>
+        <v>0.1210473371553105</v>
       </c>
       <c r="D93">
-        <v>-0.01432618365935849</v>
+        <v>-0.01540804455000939</v>
       </c>
       <c r="E93">
-        <v>0.002422873254715322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.0275729658622463</v>
+      </c>
+      <c r="F93">
+        <v>0.01157482393665854</v>
+      </c>
+      <c r="G93">
+        <v>0.02042058151913925</v>
+      </c>
+      <c r="H93">
+        <v>0.002861743115841489</v>
+      </c>
+      <c r="I93">
+        <v>0.06652273993275989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3125209275925683</v>
+        <v>0.1423324896596505</v>
       </c>
       <c r="C94">
-        <v>0.2534042338915086</v>
+        <v>-0.3605584128473578</v>
       </c>
       <c r="D94">
-        <v>0.3595809990478279</v>
+        <v>-0.3395504978151713</v>
       </c>
       <c r="E94">
-        <v>-0.2008472831529949</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.0453934143854269</v>
+      </c>
+      <c r="F94">
+        <v>-0.1193682188081572</v>
+      </c>
+      <c r="G94">
+        <v>-0.3036057795128298</v>
+      </c>
+      <c r="H94">
+        <v>0.05440556195108634</v>
+      </c>
+      <c r="I94">
+        <v>-0.3451951412165443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.0169039645283411</v>
+        <v>0.01868980086797114</v>
       </c>
       <c r="C95">
-        <v>0.03564303641128139</v>
+        <v>-0.05970768712923469</v>
       </c>
       <c r="D95">
-        <v>-0.04607168388279347</v>
+        <v>0.1086471500264539</v>
       </c>
       <c r="E95">
-        <v>0.09476411402194418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1903996686794112</v>
+      </c>
+      <c r="F95">
+        <v>-0.07741396885332366</v>
+      </c>
+      <c r="G95">
+        <v>0.1376468558816827</v>
+      </c>
+      <c r="H95">
+        <v>-0.3812081294478878</v>
+      </c>
+      <c r="I95">
+        <v>-0.4665254450272979</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0009823482105952817</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-5.676431912274554e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.001069244074533416</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.001645180808858384</v>
+      </c>
+      <c r="F97">
+        <v>-0.001796247124943546</v>
+      </c>
+      <c r="G97">
+        <v>0.00203617825390522</v>
+      </c>
+      <c r="H97">
+        <v>-0.0001974805857326789</v>
+      </c>
+      <c r="I97">
+        <v>-0.002144683362358217</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1519076716978215</v>
+        <v>0.1154082595529738</v>
       </c>
       <c r="C98">
-        <v>0.07237561517744213</v>
+        <v>-0.1426706323618316</v>
       </c>
       <c r="D98">
-        <v>-0.1419443888183868</v>
+        <v>0.06319526990683672</v>
       </c>
       <c r="E98">
-        <v>-0.199111936240777</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2664075797367089</v>
+      </c>
+      <c r="F98">
+        <v>-0.1671100637288789</v>
+      </c>
+      <c r="G98">
+        <v>0.266624870083181</v>
+      </c>
+      <c r="H98">
+        <v>0.1767670345793488</v>
+      </c>
+      <c r="I98">
+        <v>-0.02084375695286299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0006334973082623303</v>
+        <v>-0.002142712169956044</v>
       </c>
       <c r="C101">
-        <v>0.020744834062543</v>
+        <v>-0.02900481617001301</v>
       </c>
       <c r="D101">
-        <v>-0.09662906920690401</v>
+        <v>0.09923325690458379</v>
       </c>
       <c r="E101">
-        <v>0.01447107100781957</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03856719637215431</v>
+      </c>
+      <c r="F101">
+        <v>0.03520608330611804</v>
+      </c>
+      <c r="G101">
+        <v>-0.004284912192778081</v>
+      </c>
+      <c r="H101">
+        <v>-0.1424448793541273</v>
+      </c>
+      <c r="I101">
+        <v>0.01787698600622846</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.115156367607107</v>
+        <v>0.0347109989332954</v>
       </c>
       <c r="C102">
-        <v>0.1494273538323058</v>
+        <v>-0.1527814328224901</v>
       </c>
       <c r="D102">
-        <v>0.06649666238356122</v>
+        <v>-0.09068580795154614</v>
       </c>
       <c r="E102">
-        <v>-0.04247062887543877</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03025608507177156</v>
+      </c>
+      <c r="F102">
+        <v>-0.06756460074503495</v>
+      </c>
+      <c r="G102">
+        <v>0.01360467066644017</v>
+      </c>
+      <c r="H102">
+        <v>-0.05052807888350913</v>
+      </c>
+      <c r="I102">
+        <v>0.02268390963697415</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
